--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.584191</v>
+        <v>1.507950666666667</v>
       </c>
       <c r="H2">
-        <v>4.752573</v>
+        <v>4.523852</v>
       </c>
       <c r="I2">
-        <v>0.2039202590281707</v>
+        <v>0.2206625213859172</v>
       </c>
       <c r="J2">
-        <v>0.2147775532998296</v>
+        <v>0.2310732482744153</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N2">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O2">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P2">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q2">
-        <v>1.945201725716667</v>
+        <v>1.564547071088</v>
       </c>
       <c r="R2">
-        <v>17.50681553145</v>
+        <v>14.080923639792</v>
       </c>
       <c r="S2">
-        <v>0.01074890648198972</v>
+        <v>0.009193794018779344</v>
       </c>
       <c r="T2">
-        <v>0.01270997595799043</v>
+        <v>0.01014779561177882</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.584191</v>
+        <v>1.507950666666667</v>
       </c>
       <c r="H3">
-        <v>4.752573</v>
+        <v>4.523852</v>
       </c>
       <c r="I3">
-        <v>0.2039202590281707</v>
+        <v>0.2206625213859172</v>
       </c>
       <c r="J3">
-        <v>0.2147775532998296</v>
+        <v>0.2310732482744153</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.133219</v>
       </c>
       <c r="O3">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P3">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q3">
-        <v>10.10355778027633</v>
+        <v>9.617316782176443</v>
       </c>
       <c r="R3">
-        <v>90.93202002248698</v>
+        <v>86.55585103958798</v>
       </c>
       <c r="S3">
-        <v>0.0558308150151151</v>
+        <v>0.05651452176967243</v>
       </c>
       <c r="T3">
-        <v>0.06601679135883312</v>
+        <v>0.06237879757199558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.584191</v>
+        <v>1.507950666666667</v>
       </c>
       <c r="H4">
-        <v>4.752573</v>
+        <v>4.523852</v>
       </c>
       <c r="I4">
-        <v>0.2039202590281707</v>
+        <v>0.2206625213859172</v>
       </c>
       <c r="J4">
-        <v>0.2147775532998296</v>
+        <v>0.2310732482744153</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N4">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O4">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P4">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q4">
-        <v>7.665994244332667</v>
+        <v>9.408585748246223</v>
       </c>
       <c r="R4">
-        <v>68.993948198994</v>
+        <v>84.67727173421599</v>
       </c>
       <c r="S4">
-        <v>0.04236118760045024</v>
+        <v>0.05528794944932236</v>
       </c>
       <c r="T4">
-        <v>0.05008971627539738</v>
+        <v>0.06102494896666972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.584191</v>
+        <v>1.507950666666667</v>
       </c>
       <c r="H5">
-        <v>4.752573</v>
+        <v>4.523852</v>
       </c>
       <c r="I5">
-        <v>0.2039202590281707</v>
+        <v>0.2206625213859172</v>
       </c>
       <c r="J5">
-        <v>0.2147775532998296</v>
+        <v>0.2310732482744153</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N5">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O5">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P5">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q5">
-        <v>12.096693957271</v>
+        <v>5.775358314367333</v>
       </c>
       <c r="R5">
-        <v>72.58016374362599</v>
+        <v>34.652149886204</v>
       </c>
       <c r="S5">
-        <v>0.06684460041801103</v>
+        <v>0.03393790810653814</v>
       </c>
       <c r="T5">
-        <v>0.05269331447237163</v>
+        <v>0.02497300202383012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.584191</v>
+        <v>1.507950666666667</v>
       </c>
       <c r="H6">
-        <v>4.752573</v>
+        <v>4.523852</v>
       </c>
       <c r="I6">
-        <v>0.2039202590281707</v>
+        <v>0.2206625213859172</v>
       </c>
       <c r="J6">
-        <v>0.2147775532998296</v>
+        <v>0.2310732482744153</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N6">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O6">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P6">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q6">
-        <v>5.091472643866</v>
+        <v>11.18527282707156</v>
       </c>
       <c r="R6">
-        <v>45.823253794794</v>
+        <v>100.667455443644</v>
       </c>
       <c r="S6">
-        <v>0.02813474951260457</v>
+        <v>0.06572834804160489</v>
       </c>
       <c r="T6">
-        <v>0.03326775523523707</v>
+        <v>0.07254870410014104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>6.639755</v>
       </c>
       <c r="I7">
-        <v>0.2848942161400975</v>
+        <v>0.323871134529766</v>
       </c>
       <c r="J7">
-        <v>0.3000627940718238</v>
+        <v>0.3391511825754447</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N7">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O7">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P7">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q7">
-        <v>2.717614833972223</v>
+        <v>2.29631942822</v>
       </c>
       <c r="R7">
-        <v>24.45853350575</v>
+        <v>20.66687485398</v>
       </c>
       <c r="S7">
-        <v>0.01501715082720952</v>
+        <v>0.01349392946656086</v>
       </c>
       <c r="T7">
-        <v>0.01775693427895726</v>
+        <v>0.01489413814870303</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>6.639755</v>
       </c>
       <c r="I8">
-        <v>0.2848942161400975</v>
+        <v>0.323871134529766</v>
       </c>
       <c r="J8">
-        <v>0.3000627940718238</v>
+        <v>0.3391511825754447</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.133219</v>
       </c>
       <c r="O8">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P8">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q8">
         <v>14.11554294681611</v>
@@ -948,10 +948,10 @@
         <v>127.039886521345</v>
       </c>
       <c r="S8">
-        <v>0.07800047114493257</v>
+        <v>0.08294758062217583</v>
       </c>
       <c r="T8">
-        <v>0.09223115994404904</v>
+        <v>0.091554704502412</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>6.639755</v>
       </c>
       <c r="I9">
-        <v>0.2848942161400975</v>
+        <v>0.323871134529766</v>
       </c>
       <c r="J9">
-        <v>0.3000627940718238</v>
+        <v>0.3391511825754447</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N9">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O9">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P9">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q9">
-        <v>10.71005613459889</v>
+        <v>13.80918391336556</v>
       </c>
       <c r="R9">
-        <v>96.39050521139001</v>
+        <v>124.28265522029</v>
       </c>
       <c r="S9">
-        <v>0.05918223816362789</v>
+        <v>0.08114731401378415</v>
       </c>
       <c r="T9">
-        <v>0.06997966029941068</v>
+        <v>0.08956763174971023</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>6.639755</v>
       </c>
       <c r="I10">
-        <v>0.2848942161400975</v>
+        <v>0.323871134529766</v>
       </c>
       <c r="J10">
-        <v>0.3000627940718238</v>
+        <v>0.3391511825754447</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N10">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O10">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P10">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q10">
-        <v>16.90012634971833</v>
+        <v>8.476617768355833</v>
       </c>
       <c r="R10">
-        <v>101.40075809831</v>
+        <v>50.859706610135</v>
       </c>
       <c r="S10">
-        <v>0.09338768070442914</v>
+        <v>0.04981139856916787</v>
       </c>
       <c r="T10">
-        <v>0.07361711187487323</v>
+        <v>0.03665341285540202</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>6.639755</v>
       </c>
       <c r="I11">
-        <v>0.2848942161400975</v>
+        <v>0.323871134529766</v>
       </c>
       <c r="J11">
-        <v>0.3000627940718238</v>
+        <v>0.3391511825754447</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N11">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O11">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P11">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q11">
-        <v>7.113227076043334</v>
+        <v>16.41686579930389</v>
       </c>
       <c r="R11">
-        <v>64.01904368439</v>
+        <v>147.751792193735</v>
       </c>
       <c r="S11">
-        <v>0.03930667529989836</v>
+        <v>0.09647091185807723</v>
       </c>
       <c r="T11">
-        <v>0.04647792767453366</v>
+        <v>0.1064812953192174</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.261258666666667</v>
+        <v>1.299855666666667</v>
       </c>
       <c r="H12">
-        <v>3.783776</v>
+        <v>3.899567</v>
       </c>
       <c r="I12">
-        <v>0.1623517580949468</v>
+        <v>0.190211414195981</v>
       </c>
       <c r="J12">
-        <v>0.1709958272107795</v>
+        <v>0.1991854759071952</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N12">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O12">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P12">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q12">
-        <v>1.548678495822222</v>
+        <v>1.348641849548</v>
       </c>
       <c r="R12">
-        <v>13.9381064624</v>
+        <v>12.137776645932</v>
       </c>
       <c r="S12">
-        <v>0.00855777583485769</v>
+        <v>0.007925063808548403</v>
       </c>
       <c r="T12">
-        <v>0.01011908749017031</v>
+        <v>0.008747414568477817</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.261258666666667</v>
+        <v>1.299855666666667</v>
       </c>
       <c r="H13">
-        <v>3.783776</v>
+        <v>3.899567</v>
       </c>
       <c r="I13">
-        <v>0.1623517580949468</v>
+        <v>0.190211414195981</v>
       </c>
       <c r="J13">
-        <v>0.1709958272107795</v>
+        <v>0.1991854759071952</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.133219</v>
       </c>
       <c r="O13">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P13">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q13">
-        <v>8.043979428327109</v>
+        <v>8.290141046241445</v>
       </c>
       <c r="R13">
-        <v>72.39581485494398</v>
+        <v>74.61126941617299</v>
       </c>
       <c r="S13">
-        <v>0.04444987965774164</v>
+        <v>0.04871559991657468</v>
       </c>
       <c r="T13">
-        <v>0.052559476885586</v>
+        <v>0.05377061418265543</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.261258666666667</v>
+        <v>1.299855666666667</v>
       </c>
       <c r="H14">
-        <v>3.783776</v>
+        <v>3.899567</v>
       </c>
       <c r="I14">
-        <v>0.1623517580949468</v>
+        <v>0.190211414195981</v>
       </c>
       <c r="J14">
-        <v>0.1709958272107795</v>
+        <v>0.1991854759071952</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N14">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O14">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P14">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q14">
-        <v>6.103305522680889</v>
+        <v>8.110214591576224</v>
       </c>
       <c r="R14">
-        <v>54.929749704128</v>
+        <v>72.991931324186</v>
       </c>
       <c r="S14">
-        <v>0.03372599326177235</v>
+        <v>0.0476582927934525</v>
       </c>
       <c r="T14">
-        <v>0.03987908576883679</v>
+        <v>0.05260359471687168</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.261258666666667</v>
+        <v>1.299855666666667</v>
       </c>
       <c r="H15">
-        <v>3.783776</v>
+        <v>3.899567</v>
       </c>
       <c r="I15">
-        <v>0.1623517580949468</v>
+        <v>0.190211414195981</v>
       </c>
       <c r="J15">
-        <v>0.1709958272107795</v>
+        <v>0.1991854759071952</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N15">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O15">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P15">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q15">
-        <v>9.630821088885332</v>
+        <v>4.978367262209834</v>
       </c>
       <c r="R15">
-        <v>57.78492653331199</v>
+        <v>29.870203573259</v>
       </c>
       <c r="S15">
-        <v>0.0532185396818229</v>
+        <v>0.02925452612094486</v>
       </c>
       <c r="T15">
-        <v>0.04195194869411</v>
+        <v>0.02152676404600795</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.261258666666667</v>
+        <v>1.299855666666667</v>
       </c>
       <c r="H16">
-        <v>3.783776</v>
+        <v>3.899567</v>
       </c>
       <c r="I16">
-        <v>0.1623517580949468</v>
+        <v>0.190211414195981</v>
       </c>
       <c r="J16">
-        <v>0.1709958272107795</v>
+        <v>0.1991854759071952</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N16">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O16">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P16">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q16">
-        <v>4.053592021525334</v>
+        <v>9.641721436166558</v>
       </c>
       <c r="R16">
-        <v>36.48232819372799</v>
+        <v>86.77549292549901</v>
       </c>
       <c r="S16">
-        <v>0.02239956965875219</v>
+        <v>0.05665793155646053</v>
       </c>
       <c r="T16">
-        <v>0.02648622837207642</v>
+        <v>0.06253708839318235</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.1781515</v>
+        <v>0.923658</v>
       </c>
       <c r="H17">
-        <v>2.356303</v>
+        <v>1.847316</v>
       </c>
       <c r="I17">
-        <v>0.1516540360691531</v>
+        <v>0.1351613866976242</v>
       </c>
       <c r="J17">
-        <v>0.106485685369388</v>
+        <v>0.09435881384035105</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N17">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O17">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P17">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q17">
-        <v>1.446632590991667</v>
+        <v>0.9583247320559999</v>
       </c>
       <c r="R17">
-        <v>8.679795545949998</v>
+        <v>5.749948392336</v>
       </c>
       <c r="S17">
-        <v>0.007993884762074716</v>
+        <v>0.005631431838926887</v>
       </c>
       <c r="T17">
-        <v>0.006301545390200364</v>
+        <v>0.00414385466155144</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.1781515</v>
+        <v>0.923658</v>
       </c>
       <c r="H18">
-        <v>2.356303</v>
+        <v>1.847316</v>
       </c>
       <c r="I18">
-        <v>0.1516540360691531</v>
+        <v>0.1351613866976242</v>
       </c>
       <c r="J18">
-        <v>0.106485685369388</v>
+        <v>0.09435881384035105</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>19.133219</v>
       </c>
       <c r="O18">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P18">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q18">
-        <v>7.513943554892832</v>
+        <v>5.890850265034</v>
       </c>
       <c r="R18">
-        <v>45.08366132935699</v>
+        <v>35.345101590204</v>
       </c>
       <c r="S18">
-        <v>0.04152097724092636</v>
+        <v>0.03461657685666911</v>
       </c>
       <c r="T18">
-        <v>0.0327308099274209</v>
+        <v>0.02547239627103375</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.1781515</v>
+        <v>0.923658</v>
       </c>
       <c r="H19">
-        <v>2.356303</v>
+        <v>1.847316</v>
       </c>
       <c r="I19">
-        <v>0.1516540360691531</v>
+        <v>0.1351613866976242</v>
       </c>
       <c r="J19">
-        <v>0.106485685369388</v>
+        <v>0.09435881384035105</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N19">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O19">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P19">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q19">
-        <v>5.701145012155666</v>
+        <v>5.762997216788</v>
       </c>
       <c r="R19">
-        <v>34.206870072934</v>
+        <v>34.577983300728</v>
       </c>
       <c r="S19">
-        <v>0.03150371180826796</v>
+        <v>0.03386527022488503</v>
       </c>
       <c r="T19">
-        <v>0.02483424215238096</v>
+        <v>0.02491955188306612</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.1781515</v>
+        <v>0.923658</v>
       </c>
       <c r="H20">
-        <v>2.356303</v>
+        <v>1.847316</v>
       </c>
       <c r="I20">
-        <v>0.1516540360691531</v>
+        <v>0.1351613866976242</v>
       </c>
       <c r="J20">
-        <v>0.106485685369388</v>
+        <v>0.09435881384035105</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N20">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O20">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P20">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q20">
-        <v>8.996224653971497</v>
+        <v>3.537553335033</v>
       </c>
       <c r="R20">
-        <v>35.98489861588599</v>
+        <v>14.150213340132</v>
       </c>
       <c r="S20">
-        <v>0.04971185055929513</v>
+        <v>0.02078782881880452</v>
       </c>
       <c r="T20">
-        <v>0.02612509370633396</v>
+        <v>0.01019773109435361</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.1781515</v>
+        <v>0.923658</v>
       </c>
       <c r="H21">
-        <v>2.356303</v>
+        <v>1.847316</v>
       </c>
       <c r="I21">
-        <v>0.1516540360691531</v>
+        <v>0.1351613866976242</v>
       </c>
       <c r="J21">
-        <v>0.106485685369388</v>
+        <v>0.09435881384035105</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N21">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O21">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P21">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q21">
-        <v>3.786491737789</v>
+        <v>6.851263079942</v>
       </c>
       <c r="R21">
-        <v>22.718950426734</v>
+        <v>41.10757847965201</v>
       </c>
       <c r="S21">
-        <v>0.02092361169858896</v>
+        <v>0.04026027895833862</v>
       </c>
       <c r="T21">
-        <v>0.0164939941930518</v>
+        <v>0.02962527993034612</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.531826</v>
+        <v>0.8890256666666666</v>
       </c>
       <c r="H22">
-        <v>4.595478</v>
+        <v>2.667077</v>
       </c>
       <c r="I22">
-        <v>0.1971797306676319</v>
+        <v>0.1300935431907118</v>
       </c>
       <c r="J22">
-        <v>0.207678140048179</v>
+        <v>0.1362312794025938</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.227883333333333</v>
+        <v>1.037532</v>
       </c>
       <c r="N22">
-        <v>3.68365</v>
+        <v>3.112596</v>
       </c>
       <c r="O22">
-        <v>0.05271132222573729</v>
+        <v>0.04166450179684251</v>
       </c>
       <c r="P22">
-        <v>0.05917739429803119</v>
+        <v>0.0439159257402554</v>
       </c>
       <c r="Q22">
-        <v>1.880903614966667</v>
+        <v>0.9223925779879999</v>
       </c>
       <c r="R22">
-        <v>16.9281325347</v>
+        <v>8.301533201891999</v>
       </c>
       <c r="S22">
-        <v>0.01039360431960564</v>
+        <v>0.005420282664027018</v>
       </c>
       <c r="T22">
-        <v>0.01228985118071283</v>
+        <v>0.005982722749744295</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.531826</v>
+        <v>0.8890256666666666</v>
       </c>
       <c r="H23">
-        <v>4.595478</v>
+        <v>2.667077</v>
       </c>
       <c r="I23">
-        <v>0.1971797306676319</v>
+        <v>0.1300935431907118</v>
       </c>
       <c r="J23">
-        <v>0.207678140048179</v>
+        <v>0.1362312794025938</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>19.133219</v>
       </c>
       <c r="O23">
-        <v>0.2737874857612962</v>
+        <v>0.2561129158441639</v>
       </c>
       <c r="P23">
-        <v>0.3073728625014814</v>
+        <v>0.2699524849277078</v>
       </c>
       <c r="Q23">
-        <v>9.769587442631332</v>
+        <v>5.669974258984777</v>
       </c>
       <c r="R23">
-        <v>87.92628698368199</v>
+        <v>51.02976833086299</v>
       </c>
       <c r="S23">
-        <v>0.0539853427025805</v>
+        <v>0.03331863667907186</v>
       </c>
       <c r="T23">
-        <v>0.06383462438559233</v>
+        <v>0.03677597239961105</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.531826</v>
+        <v>0.8890256666666666</v>
       </c>
       <c r="H24">
-        <v>4.595478</v>
+        <v>2.667077</v>
       </c>
       <c r="I24">
-        <v>0.1971797306676319</v>
+        <v>0.1300935431907118</v>
       </c>
       <c r="J24">
-        <v>0.207678140048179</v>
+        <v>0.1362312794025938</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.839059333333334</v>
+        <v>6.239319333333333</v>
       </c>
       <c r="N24">
-        <v>14.517178</v>
+        <v>18.717958</v>
       </c>
       <c r="O24">
-        <v>0.2077340809703377</v>
+        <v>0.2505543265891952</v>
       </c>
       <c r="P24">
-        <v>0.2332167189067104</v>
+        <v>0.2640935262839185</v>
       </c>
       <c r="Q24">
-        <v>7.412596902342667</v>
+        <v>5.546915029862888</v>
       </c>
       <c r="R24">
-        <v>66.71337212108401</v>
+        <v>49.92223526876599</v>
       </c>
       <c r="S24">
-        <v>0.04096095013621923</v>
+        <v>0.03259550010775116</v>
       </c>
       <c r="T24">
-        <v>0.04843401441068461</v>
+        <v>0.03597779896760075</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.531826</v>
+        <v>0.8890256666666666</v>
       </c>
       <c r="H25">
-        <v>4.595478</v>
+        <v>2.667077</v>
       </c>
       <c r="I25">
-        <v>0.1971797306676319</v>
+        <v>0.1300935431907118</v>
       </c>
       <c r="J25">
-        <v>0.207678140048179</v>
+        <v>0.1362312794025938</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.635880999999999</v>
+        <v>3.8299385</v>
       </c>
       <c r="N25">
-        <v>15.271762</v>
+        <v>7.659877</v>
       </c>
       <c r="O25">
-        <v>0.3277977418064026</v>
+        <v>0.1538000558200097</v>
       </c>
       <c r="P25">
-        <v>0.2453390201294068</v>
+        <v>0.1080739644693659</v>
       </c>
       <c r="Q25">
-        <v>11.696841048706</v>
+        <v>3.404913628254833</v>
       </c>
       <c r="R25">
-        <v>70.18104629223599</v>
+        <v>20.429481769529</v>
       </c>
       <c r="S25">
-        <v>0.06463507044284443</v>
+        <v>0.02000839420455431</v>
       </c>
       <c r="T25">
-        <v>0.05095155138171795</v>
+        <v>0.01472305444977218</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.531826</v>
+        <v>0.8890256666666666</v>
       </c>
       <c r="H26">
-        <v>4.595478</v>
+        <v>2.667077</v>
       </c>
       <c r="I26">
-        <v>0.1971797306676319</v>
+        <v>0.1300935431907118</v>
       </c>
       <c r="J26">
-        <v>0.207678140048179</v>
+        <v>0.1362312794025938</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.213926</v>
+        <v>7.417532333333334</v>
       </c>
       <c r="N26">
-        <v>9.641778</v>
+        <v>22.252597</v>
       </c>
       <c r="O26">
-        <v>0.1379693692362262</v>
+        <v>0.2978681999497886</v>
       </c>
       <c r="P26">
-        <v>0.1548940041643703</v>
+        <v>0.3139640985787523</v>
       </c>
       <c r="Q26">
-        <v>4.923175408876</v>
+        <v>6.594376627663222</v>
       </c>
       <c r="R26">
-        <v>44.308578679884</v>
+        <v>59.349389648969</v>
       </c>
       <c r="S26">
-        <v>0.02720476306638216</v>
+        <v>0.03875072953530739</v>
       </c>
       <c r="T26">
-        <v>0.03216809868947131</v>
+        <v>0.04277173083586552</v>
       </c>
     </row>
   </sheetData>
